--- a/AutoXL-Demo.xlsx
+++ b/AutoXL-Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Submission\20220501\AutoXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABF6E18-F886-4EA5-BCD1-DE90C76FD023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101B3AC-3EB1-427E-92A9-F1E732D9006B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="828" xr2:uid="{43B4AE04-D357-4C00-9932-1CFA1DC5A44B}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11820" tabRatio="828" xr2:uid="{43B4AE04-D357-4C00-9932-1CFA1DC5A44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -19,11 +19,7 @@
     <sheet name="DUPLICATES" sheetId="6" r:id="rId4"/>
     <sheet name="JUMP-EXTEND" sheetId="7" r:id="rId5"/>
     <sheet name="LOCATE" sheetId="8" r:id="rId6"/>
-    <sheet name="LOCATE-external" sheetId="9" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="A.COUNTEQ.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.criteria_col,
     IF(
@@ -464,7 +460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>Version:</t>
   </si>
@@ -719,15 +715,6 @@
   </si>
   <si>
     <t>Find the cell containing a "label3", return the range on the right:</t>
-  </si>
-  <si>
-    <t>LOCATE</t>
-  </si>
-  <si>
-    <t>Find the cell containing a text, return the range below the cell:</t>
-  </si>
-  <si>
-    <t>Find the cell containing a text, return the range on the right:</t>
   </si>
 </sst>
 </file>
@@ -836,239 +823,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>A workbook received from another team, whose format may change from time to time:</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>header1</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>header2</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>header3</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>header4</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>header5</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>header6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>label1</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>1,1</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>1,2</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>1,3</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>1,4</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>1,5</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>1,6</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>label2</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>2,1</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>2,2</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>2,3</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>2,4</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>2,5</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>2,6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>label3</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>3,1</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>3,2</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>3,3</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>3,4</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>3,5</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>3,6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>label4</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>4,1</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>4,2</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>4,3</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>4,4</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>4,5</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>4,6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>label5</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>5,1</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>5,2</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>5,3</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>5,4</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>5,5</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>5,6</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>label6</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>6,1</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>6,2</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>6,3</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>6,4</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>6,5</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>6,6</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>label7</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>7,1</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>7,2</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>7,3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>label8</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>8,1</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>8,2</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>8,3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>label9</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>9,1</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>9,2</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>9,3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>label10</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>10,1</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>10,2</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>10,3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,7 +1122,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="419" row="2">
+  <wetp:taskpane dockstate="right" visibility="1" width="489" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1391,13 +1145,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CFE583-FF3B-4268-8E8F-E72C9B7BC0C7}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -1489,11 +1241,11 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.8984375" style="3"/>
+    <col min="3" max="3" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23">
@@ -1832,9 +1584,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1999,15 +1751,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="3" width="8.8984375" style="3"/>
+    <col min="4" max="4" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.8984375" style="3"/>
+    <col min="9" max="9" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.8984375" style="3"/>
+    <col min="15" max="15" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2207,9 +1959,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2453,9 +2205,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2811,135 +2563,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78565CE6-5518-484B-AF11-66AF61F62299}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="C5" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="C5:C14" ca="1">A.LOCATE.RANGEBYTEXT("header3",[1]Sheet1!$B$4:$I$11)</f>
-        <v>1,3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="C6" s="3" t="str">
-        <f ca="1"/>
-        <v>2,3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3" t="str">
-        <f ca="1"/>
-        <v>3,3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="C8" s="3" t="str">
-        <f ca="1"/>
-        <v>4,3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="C9" s="3" t="str">
-        <f ca="1"/>
-        <v>5,3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="C10" s="3" t="str">
-        <f ca="1"/>
-        <v>6,3</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="C11" s="3" t="str">
-        <f ca="1"/>
-        <v>7,3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="C12" s="3" t="str">
-        <f ca="1"/>
-        <v>8,3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="C13" s="3" t="str">
-        <f ca="1"/>
-        <v>9,3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="3" t="str">
-        <f ca="1"/>
-        <v>10,3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="C18:H18" ca="1">A.LOCATE.RANGEBYTEXT("label3",[1]Sheet1!C1:F19,,1)</f>
-        <v>3,1</v>
-      </c>
-      <c r="D18" s="3" t="str">
-        <f ca="1"/>
-        <v>3,2</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f ca="1"/>
-        <v>3,3</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f ca="1"/>
-        <v>3,4</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f ca="1"/>
-        <v>3,5</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f ca="1"/>
-        <v>3,6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>